--- a/docs/SRS/traceability_matrix.xlsx
+++ b/docs/SRS/traceability_matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasontan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Downloads\Plutos\docs\SRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{910A7C34-C0C1-634A-B607-A03BF7B573C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA611513-BAAC-4B06-960F-1D2F39725012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16500" xr2:uid="{A84EBF5A-4F4C-9B40-BDE6-154CB5CB1E08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A84EBF5A-4F4C-9B40-BDE6-154CB5CB1E08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,211 +36,223 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="66">
-  <si>
-    <t>FR1</t>
-  </si>
-  <si>
-    <t>FR2</t>
-  </si>
-  <si>
-    <t>FR3</t>
-  </si>
-  <si>
-    <t>FR4</t>
-  </si>
-  <si>
-    <t>FR5</t>
-  </si>
-  <si>
-    <t>FR6</t>
-  </si>
-  <si>
-    <t>FR7</t>
-  </si>
-  <si>
-    <t>FR8</t>
-  </si>
-  <si>
-    <t>FR9</t>
-  </si>
-  <si>
-    <t>FR10</t>
-  </si>
-  <si>
-    <t>FR11</t>
-  </si>
-  <si>
-    <t>FR12</t>
-  </si>
-  <si>
-    <t>FR13</t>
-  </si>
-  <si>
-    <t>FR14</t>
-  </si>
-  <si>
-    <t>FR15</t>
-  </si>
-  <si>
-    <t>FR16</t>
-  </si>
-  <si>
-    <t>FR17</t>
-  </si>
-  <si>
-    <t>FR18</t>
-  </si>
-  <si>
-    <t>FR19</t>
-  </si>
-  <si>
-    <t>FR20</t>
-  </si>
-  <si>
-    <t>FR21</t>
-  </si>
-  <si>
-    <t>FR22</t>
-  </si>
-  <si>
-    <t>FR23</t>
-  </si>
-  <si>
-    <t>FR24</t>
-  </si>
-  <si>
-    <t>NFR1</t>
-  </si>
-  <si>
-    <t>NFR2</t>
-  </si>
-  <si>
-    <t>NFR3</t>
-  </si>
-  <si>
-    <t>NFR4</t>
-  </si>
-  <si>
-    <t>NFR5</t>
-  </si>
-  <si>
-    <t>NFR6</t>
-  </si>
-  <si>
-    <t>NFR7</t>
-  </si>
-  <si>
-    <t>NFR8</t>
-  </si>
-  <si>
-    <t>NFR9</t>
-  </si>
-  <si>
-    <t>NFR10</t>
-  </si>
-  <si>
-    <t>NFR11</t>
-  </si>
-  <si>
-    <t>NFR12</t>
-  </si>
-  <si>
-    <t>NFR13</t>
-  </si>
-  <si>
-    <t>NFR14</t>
-  </si>
-  <si>
-    <t>NFR15</t>
-  </si>
-  <si>
-    <t>NFR16</t>
-  </si>
-  <si>
-    <t>NFR17</t>
-  </si>
-  <si>
-    <t>NFR18</t>
-  </si>
-  <si>
-    <t>NFR19</t>
-  </si>
-  <si>
-    <t>NFR20</t>
-  </si>
-  <si>
-    <t>NFR21</t>
-  </si>
-  <si>
-    <t>NFR22</t>
-  </si>
-  <si>
-    <t>NFR23</t>
-  </si>
-  <si>
-    <t>NFR24</t>
-  </si>
-  <si>
-    <t>NFR25</t>
-  </si>
-  <si>
-    <t>NFR26</t>
-  </si>
-  <si>
-    <t>NFR27</t>
-  </si>
-  <si>
-    <t>NFR28</t>
-  </si>
-  <si>
-    <t>NFR29</t>
-  </si>
-  <si>
-    <t>NFR30</t>
-  </si>
-  <si>
-    <t>NFR31</t>
-  </si>
-  <si>
-    <t>NFR32</t>
-  </si>
-  <si>
-    <t>NFR33</t>
-  </si>
-  <si>
-    <t>NFR34</t>
-  </si>
-  <si>
-    <t>NFR35</t>
-  </si>
-  <si>
-    <t>NFR36</t>
-  </si>
-  <si>
-    <t>NFR37</t>
-  </si>
-  <si>
-    <t>NFR38</t>
-  </si>
-  <si>
-    <t>NFR39</t>
-  </si>
-  <si>
-    <t>NFR40</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="70">
   <si>
     <t>NFR41</t>
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>FR-UAM-1</t>
+  </si>
+  <si>
+    <t>FR-UAM-2</t>
+  </si>
+  <si>
+    <t>FR-UAM-3</t>
+  </si>
+  <si>
+    <t>FR-UAM-4</t>
+  </si>
+  <si>
+    <t>FR-UAM-5</t>
+  </si>
+  <si>
+    <t>FR-UAM-6</t>
+  </si>
+  <si>
+    <t>FR-IP-1</t>
+  </si>
+  <si>
+    <t>FR-IP-2</t>
+  </si>
+  <si>
+    <t>FR-IP-3</t>
+  </si>
+  <si>
+    <t>FR-IP-4</t>
+  </si>
+  <si>
+    <t>FR-IP-5</t>
+  </si>
+  <si>
+    <t>FR-MIS-1</t>
+  </si>
+  <si>
+    <t>FR-MIS-2</t>
+  </si>
+  <si>
+    <t>FR-DM-1</t>
+  </si>
+  <si>
+    <t>FR-DM-2</t>
+  </si>
+  <si>
+    <t>FR-RS-1</t>
+  </si>
+  <si>
+    <t>FR-RS-2</t>
+  </si>
+  <si>
+    <t>FR-RS-3</t>
+  </si>
+  <si>
+    <t>FR-FT-1</t>
+  </si>
+  <si>
+    <t>FR-FT-2</t>
+  </si>
+  <si>
+    <t>FR-FT-3</t>
+  </si>
+  <si>
+    <t>FR-FT-4</t>
+  </si>
+  <si>
+    <t>FR-FT-5</t>
+  </si>
+  <si>
+    <t>FR-FT-6</t>
+  </si>
+  <si>
+    <t>NFR-ACC-2</t>
+  </si>
+  <si>
+    <t>NFR-ACC-3</t>
+  </si>
+  <si>
+    <t>NFR-ACC-4</t>
+  </si>
+  <si>
+    <t>NFR-ACC-5</t>
+  </si>
+  <si>
+    <t>NFR-PERF-1</t>
+  </si>
+  <si>
+    <t>NFR-PERF-2</t>
+  </si>
+  <si>
+    <t>NFR-PERF-3</t>
+  </si>
+  <si>
+    <t>NFR-USAB-1</t>
+  </si>
+  <si>
+    <t>NFR-USAB-2</t>
+  </si>
+  <si>
+    <t>NFR-USAB-3</t>
+  </si>
+  <si>
+    <t>NFR-USAB-4</t>
+  </si>
+  <si>
+    <t>NFR-USAB-5</t>
+  </si>
+  <si>
+    <t>NFR-USAB-6</t>
+  </si>
+  <si>
+    <t>NFR-USAB-7</t>
+  </si>
+  <si>
+    <t>NFR-USAB-8</t>
+  </si>
+  <si>
+    <t>NFR-USAB-9</t>
+  </si>
+  <si>
+    <t>NFR-SEC-1</t>
+  </si>
+  <si>
+    <t>NFR-SEC-2</t>
+  </si>
+  <si>
+    <t>NFR-MTB-1</t>
+  </si>
+  <si>
+    <t>NFR-MTB-2</t>
+  </si>
+  <si>
+    <t>NFR-MTB-3</t>
+  </si>
+  <si>
+    <t>NFR-PORT-1</t>
+  </si>
+  <si>
+    <t>NFR-PORT-2</t>
+  </si>
+  <si>
+    <t>NFR-PORT-3</t>
+  </si>
+  <si>
+    <t>NFR-PORT-4</t>
+  </si>
+  <si>
+    <t>NFR-REUS-1</t>
+  </si>
+  <si>
+    <t>NFR-REUS-2</t>
+  </si>
+  <si>
+    <t>NFR-REUS-3</t>
+  </si>
+  <si>
+    <t>NFR-REUS-4</t>
+  </si>
+  <si>
+    <t>NFR-UND-1</t>
+  </si>
+  <si>
+    <t>NFR-UND-2</t>
+  </si>
+  <si>
+    <t>NFR-UND-3</t>
+  </si>
+  <si>
+    <t>NFR-UND-4</t>
+  </si>
+  <si>
+    <t>NFR-UND-5</t>
+  </si>
+  <si>
+    <t>NFR-UND-6</t>
+  </si>
+  <si>
+    <t>NFR-UND-7</t>
+  </si>
+  <si>
+    <t>NFR-UND-8</t>
+  </si>
+  <si>
+    <t>NFR-UND-9</t>
+  </si>
+  <si>
+    <t>NFR-REG-1</t>
+  </si>
+  <si>
+    <t>NFR-REG-2</t>
+  </si>
+  <si>
+    <t>NFR-DAT-1</t>
+  </si>
+  <si>
+    <t>NFR-DAT-2</t>
+  </si>
+  <si>
+    <t>NFR-DAT-3</t>
+  </si>
+  <si>
+    <t>NFR-ACC-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -268,6 +280,14 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -277,7 +297,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -322,11 +342,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -334,15 +367,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -677,217 +707,229 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB9F9AB-ADEF-DC47-99CE-F507CDF35C82}">
-  <dimension ref="A1:BN67"/>
+  <dimension ref="A1:BR69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:A159"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:70" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="BN1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -903,7 +945,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
@@ -921,42 +963,42 @@
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
+      <c r="AF2" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AG2" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AK2" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AL2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AM2" s="3"/>
       <c r="AN2" s="3"/>
       <c r="AO2" s="3"/>
-      <c r="AP2" s="3"/>
+      <c r="AP2" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AQ2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AR2" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AR2" s="3"/>
       <c r="AS2" s="3"/>
       <c r="AT2" s="3"/>
       <c r="AU2" s="3"/>
-      <c r="AV2" s="3"/>
-      <c r="AW2" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AV2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="3"/>
       <c r="AX2" s="3"/>
       <c r="AY2" s="3"/>
       <c r="AZ2" s="3"/>
@@ -964,24 +1006,28 @@
       <c r="BB2" s="3"/>
       <c r="BC2" s="3"/>
       <c r="BD2" s="3"/>
-      <c r="BE2" s="3"/>
-      <c r="BF2" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="BE2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF2" s="3"/>
       <c r="BG2" s="3"/>
       <c r="BH2" s="3"/>
       <c r="BI2" s="3"/>
       <c r="BJ2" s="3"/>
       <c r="BK2" s="3"/>
-      <c r="BL2" s="3"/>
-      <c r="BM2" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="BL2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM2" s="8"/>
       <c r="BN2" s="3"/>
-    </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="BO2" s="3"/>
+      <c r="BP2" s="3"/>
+      <c r="BQ2" s="3"/>
+      <c r="BR2" s="2"/>
+    </row>
+    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -989,7 +1035,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -999,7 +1045,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -1017,40 +1063,40 @@
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
+      <c r="AF3" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AG3" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI3" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
+      <c r="AK3" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AL3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM3" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AM3" s="3"/>
       <c r="AN3" s="3"/>
       <c r="AO3" s="3"/>
-      <c r="AP3" s="3"/>
+      <c r="AP3" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AQ3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AR3" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AR3" s="3"/>
       <c r="AS3" s="3"/>
       <c r="AT3" s="3"/>
       <c r="AU3" s="3"/>
-      <c r="AV3" s="3"/>
-      <c r="AW3" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AV3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="3"/>
       <c r="AX3" s="3"/>
       <c r="AY3" s="3"/>
       <c r="AZ3" s="3"/>
@@ -1058,33 +1104,37 @@
       <c r="BB3" s="3"/>
       <c r="BC3" s="3"/>
       <c r="BD3" s="3"/>
-      <c r="BE3" s="3"/>
-      <c r="BF3" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="BE3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF3" s="3"/>
       <c r="BG3" s="3"/>
       <c r="BH3" s="3"/>
       <c r="BI3" s="3"/>
       <c r="BJ3" s="3"/>
       <c r="BK3" s="3"/>
-      <c r="BL3" s="3"/>
-      <c r="BM3" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="BL3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM3" s="8"/>
       <c r="BN3" s="3"/>
-    </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="BO3" s="3"/>
+      <c r="BP3" s="3"/>
+      <c r="BQ3" s="3"/>
+      <c r="BR3" s="2"/>
+    </row>
+    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -1110,40 +1160,40 @@
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
+      <c r="AE4" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AF4" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI4" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AI4" s="3"/>
       <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
+      <c r="AK4" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AL4" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="AM4" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="AN4" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="AO4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AP4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AQ4" s="3"/>
-      <c r="AR4" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="3"/>
       <c r="AS4" s="3"/>
       <c r="AT4" s="3"/>
       <c r="AU4" s="3"/>
@@ -1163,20 +1213,24 @@
       <c r="BI4" s="3"/>
       <c r="BJ4" s="3"/>
       <c r="BK4" s="3"/>
-      <c r="BL4" s="3"/>
-      <c r="BM4" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="BL4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM4" s="8"/>
       <c r="BN4" s="3"/>
-    </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="BO4" s="3"/>
+      <c r="BP4" s="3"/>
+      <c r="BQ4" s="3"/>
+      <c r="BR4" s="2"/>
+    </row>
+    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1210,13 +1264,13 @@
       <c r="AH5" s="3"/>
       <c r="AI5" s="3"/>
       <c r="AJ5" s="3"/>
-      <c r="AK5" s="3"/>
+      <c r="AK5" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AL5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM5" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AM5" s="3"/>
       <c r="AN5" s="3"/>
       <c r="AO5" s="3"/>
       <c r="AP5" s="3"/>
@@ -1242,17 +1296,21 @@
       <c r="BJ5" s="3"/>
       <c r="BK5" s="3"/>
       <c r="BL5" s="3"/>
-      <c r="BM5" s="3"/>
+      <c r="BM5" s="8"/>
       <c r="BN5" s="3"/>
-    </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="BO5" s="3"/>
+      <c r="BP5" s="3"/>
+      <c r="BQ5" s="3"/>
+      <c r="BR5" s="2"/>
+    </row>
+    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1281,29 +1339,29 @@
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
       <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
+      <c r="AF6" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AG6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH6" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AH6" s="3"/>
       <c r="AI6" s="3"/>
       <c r="AJ6" s="3"/>
       <c r="AK6" s="3"/>
       <c r="AL6" s="3"/>
       <c r="AM6" s="3"/>
-      <c r="AN6" s="3"/>
-      <c r="AO6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AP6" s="3"/>
+      <c r="AN6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AQ6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AR6" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AR6" s="3"/>
       <c r="AS6" s="3"/>
       <c r="AT6" s="3"/>
       <c r="AU6" s="3"/>
@@ -1324,16 +1382,20 @@
       <c r="BJ6" s="3"/>
       <c r="BK6" s="3"/>
       <c r="BL6" s="3"/>
-      <c r="BM6" s="3"/>
+      <c r="BM6" s="8"/>
       <c r="BN6" s="3"/>
-    </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="BO6" s="3"/>
+      <c r="BP6" s="3"/>
+      <c r="BQ6" s="3"/>
+      <c r="BR6" s="2"/>
+    </row>
+    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1363,33 +1425,33 @@
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
       <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
+      <c r="AF7" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AG7" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="AH7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI7" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AI7" s="3"/>
       <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
+      <c r="AK7" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AL7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM7" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AM7" s="3"/>
       <c r="AN7" s="3"/>
       <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
+      <c r="AP7" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AQ7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AR7" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AR7" s="3"/>
       <c r="AS7" s="3"/>
       <c r="AT7" s="3"/>
       <c r="AU7" s="3"/>
@@ -1410,12 +1472,16 @@
       <c r="BJ7" s="3"/>
       <c r="BK7" s="3"/>
       <c r="BL7" s="3"/>
-      <c r="BM7" s="3"/>
+      <c r="BM7" s="8"/>
       <c r="BN7" s="3"/>
-    </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="BO7" s="3"/>
+      <c r="BP7" s="3"/>
+      <c r="BQ7" s="3"/>
+      <c r="BR7" s="2"/>
+    </row>
+    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1427,10 +1493,10 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -1451,13 +1517,13 @@
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
+      <c r="AF8" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AG8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH8" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AH8" s="3"/>
       <c r="AI8" s="3"/>
       <c r="AJ8" s="3"/>
       <c r="AK8" s="3"/>
@@ -1488,12 +1554,16 @@
       <c r="BJ8" s="3"/>
       <c r="BK8" s="3"/>
       <c r="BL8" s="3"/>
-      <c r="BM8" s="3"/>
+      <c r="BM8" s="8"/>
       <c r="BN8" s="3"/>
-    </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="BO8" s="3"/>
+      <c r="BP8" s="3"/>
+      <c r="BQ8" s="3"/>
+      <c r="BR8" s="2"/>
+    </row>
+    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1504,19 +1574,19 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -1531,17 +1601,17 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF9" s="3"/>
+      <c r="AD9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AG9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH9" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AH9" s="3"/>
       <c r="AI9" s="3"/>
       <c r="AJ9" s="3"/>
       <c r="AK9" s="3"/>
@@ -1555,10 +1625,10 @@
       <c r="AS9" s="3"/>
       <c r="AT9" s="3"/>
       <c r="AU9" s="3"/>
-      <c r="AV9" s="3"/>
-      <c r="AW9" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AV9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW9" s="3"/>
       <c r="AX9" s="3"/>
       <c r="AY9" s="3"/>
       <c r="AZ9" s="3"/>
@@ -1574,12 +1644,16 @@
       <c r="BJ9" s="3"/>
       <c r="BK9" s="3"/>
       <c r="BL9" s="3"/>
-      <c r="BM9" s="3"/>
+      <c r="BM9" s="8"/>
       <c r="BN9" s="3"/>
-    </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="BO9" s="3"/>
+      <c r="BP9" s="3"/>
+      <c r="BQ9" s="3"/>
+      <c r="BR9" s="2"/>
+    </row>
+    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1589,7 +1663,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -1611,33 +1685,33 @@
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF10" s="3"/>
+      <c r="AD10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AG10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH10" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
       <c r="AJ10" s="3"/>
-      <c r="AK10" s="3"/>
+      <c r="AK10" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AL10" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="AM10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO10" s="3"/>
-      <c r="AP10" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="3"/>
       <c r="AQ10" s="3"/>
       <c r="AR10" s="3"/>
       <c r="AS10" s="3"/>
@@ -1660,12 +1734,16 @@
       <c r="BJ10" s="3"/>
       <c r="BK10" s="3"/>
       <c r="BL10" s="3"/>
-      <c r="BM10" s="3"/>
+      <c r="BM10" s="8"/>
       <c r="BN10" s="3"/>
-    </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="BO10" s="3"/>
+      <c r="BP10" s="3"/>
+      <c r="BQ10" s="3"/>
+      <c r="BR10" s="2"/>
+    </row>
+    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1674,10 +1752,10 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -1700,17 +1778,17 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG11" s="3"/>
+      <c r="AE11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AH11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI11" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AI11" s="3"/>
       <c r="AJ11" s="3"/>
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
@@ -1740,12 +1818,16 @@
       <c r="BJ11" s="3"/>
       <c r="BK11" s="3"/>
       <c r="BL11" s="3"/>
-      <c r="BM11" s="3"/>
+      <c r="BM11" s="8"/>
       <c r="BN11" s="3"/>
-    </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="BO11" s="3"/>
+      <c r="BP11" s="3"/>
+      <c r="BQ11" s="3"/>
+      <c r="BR11" s="2"/>
+    </row>
+    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1754,10 +1836,10 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -1767,7 +1849,7 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
@@ -1777,21 +1859,19 @@
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
-      <c r="Z12" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AB12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AG12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="3"/>
       <c r="AI12" s="3"/>
       <c r="AJ12" s="3"/>
       <c r="AK12" s="3"/>
@@ -1808,10 +1888,10 @@
       <c r="AV12" s="3"/>
       <c r="AW12" s="3"/>
       <c r="AX12" s="3"/>
-      <c r="AY12" s="3"/>
-      <c r="AZ12" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AY12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ12" s="3"/>
       <c r="BA12" s="3"/>
       <c r="BB12" s="3"/>
       <c r="BC12" s="3"/>
@@ -1824,12 +1904,16 @@
       <c r="BJ12" s="3"/>
       <c r="BK12" s="3"/>
       <c r="BL12" s="3"/>
-      <c r="BM12" s="3"/>
+      <c r="BM12" s="8"/>
       <c r="BN12" s="3"/>
-    </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>11</v>
+      <c r="BO12" s="3"/>
+      <c r="BP12" s="3"/>
+      <c r="BQ12" s="3"/>
+      <c r="BR12" s="2"/>
+    </row>
+    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1844,7 +1928,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
@@ -1858,28 +1942,28 @@
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AA13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
+      <c r="AF13" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AG13" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="AH13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI13" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AI13" s="3"/>
       <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AK13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="3"/>
       <c r="AM13" s="3"/>
       <c r="AN13" s="3"/>
       <c r="AO13" s="3"/>
@@ -1906,12 +1990,16 @@
       <c r="BJ13" s="3"/>
       <c r="BK13" s="3"/>
       <c r="BL13" s="3"/>
-      <c r="BM13" s="3"/>
+      <c r="BM13" s="8"/>
       <c r="BN13" s="3"/>
-    </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>12</v>
+      <c r="BO13" s="3"/>
+      <c r="BP13" s="3"/>
+      <c r="BQ13" s="3"/>
+      <c r="BR13" s="2"/>
+    </row>
+    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1925,7 +2013,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -1933,7 +2021,7 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
@@ -1944,28 +2032,28 @@
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AC14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
+      <c r="AF14" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AG14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH14" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AH14" s="3"/>
       <c r="AI14" s="3"/>
       <c r="AJ14" s="3"/>
       <c r="AK14" s="3"/>
-      <c r="AL14" s="3"/>
+      <c r="AL14" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AM14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN14" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AN14" s="3"/>
       <c r="AO14" s="3"/>
       <c r="AP14" s="3"/>
       <c r="AQ14" s="3"/>
@@ -1990,18 +2078,22 @@
       <c r="BJ14" s="3"/>
       <c r="BK14" s="3"/>
       <c r="BL14" s="3"/>
-      <c r="BM14" s="3"/>
+      <c r="BM14" s="8"/>
       <c r="BN14" s="3"/>
-    </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>13</v>
+      <c r="BO14" s="3"/>
+      <c r="BP14" s="3"/>
+      <c r="BQ14" s="3"/>
+      <c r="BR14" s="2"/>
+    </row>
+    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -2029,15 +2121,15 @@
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AD15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AG15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="3"/>
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
       <c r="AK15" s="3"/>
@@ -2045,10 +2137,10 @@
       <c r="AM15" s="3"/>
       <c r="AN15" s="3"/>
       <c r="AO15" s="3"/>
-      <c r="AP15" s="3"/>
-      <c r="AQ15" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AP15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ15" s="3"/>
       <c r="AR15" s="3"/>
       <c r="AS15" s="3"/>
       <c r="AT15" s="3"/>
@@ -2069,15 +2161,19 @@
       <c r="BI15" s="3"/>
       <c r="BJ15" s="3"/>
       <c r="BK15" s="3"/>
-      <c r="BL15" s="3"/>
-      <c r="BM15" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="BL15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM15" s="8"/>
       <c r="BN15" s="3"/>
-    </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>14</v>
+      <c r="BO15" s="3"/>
+      <c r="BP15" s="3"/>
+      <c r="BQ15" s="3"/>
+      <c r="BR15" s="2"/>
+    </row>
+    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2087,7 +2183,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -2109,36 +2205,36 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AD16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
-      <c r="AG16" s="3"/>
-      <c r="AH16" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AG16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH16" s="3"/>
       <c r="AI16" s="3"/>
       <c r="AJ16" s="3"/>
-      <c r="AK16" s="3"/>
-      <c r="AL16" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AK16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL16" s="3"/>
       <c r="AM16" s="3"/>
       <c r="AN16" s="3"/>
       <c r="AO16" s="3"/>
       <c r="AP16" s="3"/>
-      <c r="AQ16" s="3"/>
-      <c r="AR16" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AQ16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR16" s="3"/>
       <c r="AS16" s="3"/>
       <c r="AT16" s="3"/>
       <c r="AU16" s="3"/>
-      <c r="AV16" s="3"/>
-      <c r="AW16" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AV16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW16" s="3"/>
       <c r="AX16" s="3"/>
       <c r="AY16" s="3"/>
       <c r="AZ16" s="3"/>
@@ -2153,15 +2249,19 @@
       <c r="BI16" s="3"/>
       <c r="BJ16" s="3"/>
       <c r="BK16" s="3"/>
-      <c r="BL16" s="3"/>
-      <c r="BM16" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="BL16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM16" s="8"/>
       <c r="BN16" s="3"/>
-    </row>
-    <row r="17" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>15</v>
+      <c r="BO16" s="3"/>
+      <c r="BP16" s="3"/>
+      <c r="BQ16" s="3"/>
+      <c r="BR16" s="2"/>
+    </row>
+    <row r="17" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2174,7 +2274,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -2182,7 +2282,7 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
@@ -2191,23 +2291,21 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
-      <c r="Z17" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AB17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
+      <c r="AF17" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AG17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH17" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AH17" s="3"/>
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
       <c r="AK17" s="3"/>
@@ -2226,10 +2324,10 @@
       <c r="AX17" s="3"/>
       <c r="AY17" s="3"/>
       <c r="AZ17" s="3"/>
-      <c r="BA17" s="3"/>
-      <c r="BB17" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="BA17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB17" s="3"/>
       <c r="BC17" s="3"/>
       <c r="BD17" s="3"/>
       <c r="BE17" s="3"/>
@@ -2240,12 +2338,16 @@
       <c r="BJ17" s="3"/>
       <c r="BK17" s="3"/>
       <c r="BL17" s="3"/>
-      <c r="BM17" s="3"/>
+      <c r="BM17" s="8"/>
       <c r="BN17" s="3"/>
-    </row>
-    <row r="18" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>16</v>
+      <c r="BO17" s="3"/>
+      <c r="BP17" s="3"/>
+      <c r="BQ17" s="3"/>
+      <c r="BR17" s="2"/>
+    </row>
+    <row r="18" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2263,44 +2365,44 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
+      <c r="Z18" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AA18" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB18" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
-      <c r="AG18" s="3"/>
-      <c r="AH18" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AG18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH18" s="3"/>
       <c r="AI18" s="3"/>
       <c r="AJ18" s="3"/>
-      <c r="AK18" s="3"/>
-      <c r="AL18" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AK18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL18" s="3"/>
       <c r="AM18" s="3"/>
-      <c r="AN18" s="3"/>
-      <c r="AO18" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AN18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO18" s="3"/>
       <c r="AP18" s="3"/>
       <c r="AQ18" s="3"/>
       <c r="AR18" s="3"/>
@@ -2324,12 +2426,16 @@
       <c r="BJ18" s="3"/>
       <c r="BK18" s="3"/>
       <c r="BL18" s="3"/>
-      <c r="BM18" s="3"/>
+      <c r="BM18" s="8"/>
       <c r="BN18" s="3"/>
-    </row>
-    <row r="19" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>17</v>
+      <c r="BO18" s="3"/>
+      <c r="BP18" s="3"/>
+      <c r="BQ18" s="3"/>
+      <c r="BR18" s="2"/>
+    </row>
+    <row r="19" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2344,7 +2450,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
@@ -2358,36 +2464,36 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AA19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
+      <c r="AF19" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AG19" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH19" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
       <c r="AJ19" s="3"/>
-      <c r="AK19" s="3"/>
+      <c r="AK19" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AL19" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="AM19" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN19" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO19" s="3"/>
-      <c r="AP19" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AN19" s="3"/>
+      <c r="AO19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP19" s="3"/>
       <c r="AQ19" s="3"/>
       <c r="AR19" s="3"/>
       <c r="AS19" s="3"/>
@@ -2410,12 +2516,16 @@
       <c r="BJ19" s="3"/>
       <c r="BK19" s="3"/>
       <c r="BL19" s="3"/>
-      <c r="BM19" s="3"/>
+      <c r="BM19" s="8"/>
       <c r="BN19" s="3"/>
-    </row>
-    <row r="20" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>18</v>
+      <c r="BO19" s="3"/>
+      <c r="BP19" s="3"/>
+      <c r="BQ19" s="3"/>
+      <c r="BR19" s="2"/>
+    </row>
+    <row r="20" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2434,46 +2544,46 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE20" s="3"/>
+      <c r="AA20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AF20" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG20" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
       <c r="AI20" s="3"/>
       <c r="AJ20" s="3"/>
       <c r="AK20" s="3"/>
       <c r="AL20" s="3"/>
       <c r="AM20" s="3"/>
-      <c r="AN20" s="3"/>
+      <c r="AN20" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AO20" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AP20" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AP20" s="3"/>
       <c r="AQ20" s="3"/>
       <c r="AR20" s="3"/>
       <c r="AS20" s="3"/>
@@ -2496,12 +2606,16 @@
       <c r="BJ20" s="3"/>
       <c r="BK20" s="3"/>
       <c r="BL20" s="3"/>
-      <c r="BM20" s="3"/>
+      <c r="BM20" s="8"/>
       <c r="BN20" s="3"/>
-    </row>
-    <row r="21" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>19</v>
+      <c r="BO20" s="3"/>
+      <c r="BP20" s="3"/>
+      <c r="BQ20" s="3"/>
+      <c r="BR20" s="2"/>
+    </row>
+    <row r="21" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2525,15 +2639,15 @@
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AA21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
@@ -2570,12 +2684,16 @@
       <c r="BJ21" s="3"/>
       <c r="BK21" s="3"/>
       <c r="BL21" s="3"/>
-      <c r="BM21" s="3"/>
+      <c r="BM21" s="8"/>
       <c r="BN21" s="3"/>
-    </row>
-    <row r="22" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>20</v>
+      <c r="BO21" s="3"/>
+      <c r="BP21" s="3"/>
+      <c r="BQ21" s="3"/>
+      <c r="BR21" s="2"/>
+    </row>
+    <row r="22" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2596,7 +2714,7 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
@@ -2606,10 +2724,10 @@
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AC22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
@@ -2620,10 +2738,10 @@
       <c r="AL22" s="3"/>
       <c r="AM22" s="3"/>
       <c r="AN22" s="3"/>
-      <c r="AO22" s="3"/>
-      <c r="AP22" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AO22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP22" s="3"/>
       <c r="AQ22" s="3"/>
       <c r="AR22" s="3"/>
       <c r="AS22" s="3"/>
@@ -2646,12 +2764,16 @@
       <c r="BJ22" s="3"/>
       <c r="BK22" s="3"/>
       <c r="BL22" s="3"/>
-      <c r="BM22" s="3"/>
+      <c r="BM22" s="8"/>
       <c r="BN22" s="3"/>
-    </row>
-    <row r="23" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>21</v>
+      <c r="BO22" s="3"/>
+      <c r="BP22" s="3"/>
+      <c r="BQ22" s="3"/>
+      <c r="BR22" s="2"/>
+    </row>
+    <row r="23" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2673,7 +2795,7 @@
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
@@ -2684,10 +2806,10 @@
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
       <c r="AD23" s="3"/>
-      <c r="AE23" s="3"/>
-      <c r="AF23" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AE23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="3"/>
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
       <c r="AI23" s="3"/>
@@ -2696,10 +2818,10 @@
       <c r="AL23" s="3"/>
       <c r="AM23" s="3"/>
       <c r="AN23" s="3"/>
-      <c r="AO23" s="3"/>
-      <c r="AP23" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AO23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP23" s="3"/>
       <c r="AQ23" s="3"/>
       <c r="AR23" s="3"/>
       <c r="AS23" s="3"/>
@@ -2722,12 +2844,16 @@
       <c r="BJ23" s="3"/>
       <c r="BK23" s="3"/>
       <c r="BL23" s="3"/>
-      <c r="BM23" s="3"/>
+      <c r="BM23" s="8"/>
       <c r="BN23" s="3"/>
-    </row>
-    <row r="24" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>22</v>
+      <c r="BO23" s="3"/>
+      <c r="BP23" s="3"/>
+      <c r="BQ23" s="3"/>
+      <c r="BR23" s="2"/>
+    </row>
+    <row r="24" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2753,7 +2879,7 @@
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
       <c r="Y24" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
@@ -2770,10 +2896,10 @@
       <c r="AL24" s="3"/>
       <c r="AM24" s="3"/>
       <c r="AN24" s="3"/>
-      <c r="AO24" s="3"/>
-      <c r="AP24" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AO24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP24" s="3"/>
       <c r="AQ24" s="3"/>
       <c r="AR24" s="3"/>
       <c r="AS24" s="3"/>
@@ -2796,12 +2922,16 @@
       <c r="BJ24" s="3"/>
       <c r="BK24" s="3"/>
       <c r="BL24" s="3"/>
-      <c r="BM24" s="3"/>
+      <c r="BM24" s="8"/>
       <c r="BN24" s="3"/>
-    </row>
-    <row r="25" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>23</v>
+      <c r="BO24" s="3"/>
+      <c r="BP24" s="3"/>
+      <c r="BQ24" s="3"/>
+      <c r="BR24" s="2"/>
+    </row>
+    <row r="25" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2826,26 +2956,26 @@
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
+      <c r="AC25" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AD25" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="AE25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG25" s="3"/>
-      <c r="AH25" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
       <c r="AJ25" s="3"/>
       <c r="AK25" s="3"/>
@@ -2876,12 +3006,16 @@
       <c r="BJ25" s="3"/>
       <c r="BK25" s="3"/>
       <c r="BL25" s="3"/>
-      <c r="BM25" s="3"/>
+      <c r="BM25" s="8"/>
       <c r="BN25" s="3"/>
-    </row>
-    <row r="26" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>24</v>
+      <c r="BO25" s="3"/>
+      <c r="BP25" s="3"/>
+      <c r="BQ25" s="3"/>
+      <c r="BR25" s="2"/>
+    </row>
+    <row r="26" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2893,17 +3027,15 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
-      <c r="Q26" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="R26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
@@ -2914,15 +3046,13 @@
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
-      <c r="AC26" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AC26" s="3"/>
       <c r="AD26" s="3"/>
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
       <c r="AG26" s="3"/>
       <c r="AH26" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="AI26" s="3"/>
       <c r="AJ26" s="3"/>
@@ -2930,7 +3060,9 @@
       <c r="AL26" s="3"/>
       <c r="AM26" s="3"/>
       <c r="AN26" s="3"/>
-      <c r="AO26" s="3"/>
+      <c r="AO26" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AP26" s="3"/>
       <c r="AQ26" s="3"/>
       <c r="AR26" s="3"/>
@@ -2954,12 +3086,16 @@
       <c r="BJ26" s="3"/>
       <c r="BK26" s="3"/>
       <c r="BL26" s="3"/>
-      <c r="BM26" s="3"/>
+      <c r="BM26" s="8"/>
       <c r="BN26" s="3"/>
-    </row>
-    <row r="27" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>25</v>
+      <c r="BO26" s="3"/>
+      <c r="BP26" s="3"/>
+      <c r="BQ26" s="3"/>
+      <c r="BR26" s="2"/>
+    </row>
+    <row r="27" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2972,17 +3108,25 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
+      <c r="M27" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
@@ -2990,24 +3134,24 @@
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
-      <c r="AC27" s="3"/>
+      <c r="AC27" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AD27" s="3"/>
       <c r="AE27" s="3"/>
       <c r="AF27" s="3"/>
       <c r="AG27" s="3"/>
       <c r="AH27" s="3"/>
-      <c r="AI27" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AI27" s="3"/>
       <c r="AJ27" s="3"/>
-      <c r="AK27" s="3"/>
+      <c r="AK27" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AL27" s="3"/>
       <c r="AM27" s="3"/>
       <c r="AN27" s="3"/>
       <c r="AO27" s="3"/>
-      <c r="AP27" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AP27" s="3"/>
       <c r="AQ27" s="3"/>
       <c r="AR27" s="3"/>
       <c r="AS27" s="3"/>
@@ -3030,12 +3174,16 @@
       <c r="BJ27" s="3"/>
       <c r="BK27" s="3"/>
       <c r="BL27" s="3"/>
-      <c r="BM27" s="3"/>
+      <c r="BM27" s="8"/>
       <c r="BN27" s="3"/>
-    </row>
-    <row r="28" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>26</v>
+      <c r="BO27" s="3"/>
+      <c r="BP27" s="3"/>
+      <c r="BQ27" s="3"/>
+      <c r="BR27" s="2"/>
+    </row>
+    <row r="28" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3043,30 +3191,26 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="H28" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="L28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="S28" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="T28" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="U28" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="Q28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
@@ -3075,9 +3219,7 @@
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
-      <c r="AD28" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
       <c r="AF28" s="3"/>
       <c r="AG28" s="3"/>
@@ -3085,9 +3227,7 @@
       <c r="AI28" s="3"/>
       <c r="AJ28" s="3"/>
       <c r="AK28" s="3"/>
-      <c r="AL28" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AL28" s="3"/>
       <c r="AM28" s="3"/>
       <c r="AN28" s="3"/>
       <c r="AO28" s="3"/>
@@ -3114,12 +3254,16 @@
       <c r="BJ28" s="3"/>
       <c r="BK28" s="3"/>
       <c r="BL28" s="3"/>
-      <c r="BM28" s="3"/>
+      <c r="BM28" s="8"/>
       <c r="BN28" s="3"/>
-    </row>
-    <row r="29" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>27</v>
+      <c r="BO28" s="3"/>
+      <c r="BP28" s="3"/>
+      <c r="BQ28" s="3"/>
+      <c r="BR28" s="2"/>
+    </row>
+    <row r="29" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3127,34 +3271,36 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="L29" s="3"/>
       <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
+      <c r="N29" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
-      <c r="Q29" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
+      <c r="T29" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
+      <c r="V29" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA29" s="3"/>
+      <c r="Y29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
       <c r="AD29" s="3"/>
@@ -3192,12 +3338,16 @@
       <c r="BJ29" s="3"/>
       <c r="BK29" s="3"/>
       <c r="BL29" s="3"/>
-      <c r="BM29" s="3"/>
+      <c r="BM29" s="8"/>
       <c r="BN29" s="3"/>
-    </row>
-    <row r="30" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>28</v>
+      <c r="BO29" s="3"/>
+      <c r="BP29" s="3"/>
+      <c r="BQ29" s="3"/>
+      <c r="BR29" s="2"/>
+    </row>
+    <row r="30" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -3206,36 +3356,34 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
+      <c r="I30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
-      <c r="N30" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
-      <c r="T30" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="T30" s="3"/>
       <c r="U30" s="3"/>
-      <c r="V30" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="V30" s="3"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
-      <c r="Y30" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
       <c r="AA30" s="3"/>
-      <c r="AB30" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
       <c r="AD30" s="3"/>
       <c r="AE30" s="3"/>
@@ -3271,55 +3419,65 @@
       <c r="BI30" s="3"/>
       <c r="BJ30" s="3"/>
       <c r="BK30" s="3"/>
-      <c r="BL30" s="3"/>
-      <c r="BM30" s="3"/>
+      <c r="BL30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM30" s="8" t="s">
+        <v>1</v>
+      </c>
       <c r="BN30" s="3"/>
-    </row>
-    <row r="31" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>29</v>
+      <c r="BO30" s="3"/>
+      <c r="BP30" s="3"/>
+      <c r="BQ30" s="3"/>
+      <c r="BR30" s="2"/>
+    </row>
+    <row r="31" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="I31" s="3"/>
       <c r="J31" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P31" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
+      <c r="U31" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
+      <c r="W31" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="Y31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="3"/>
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
-      <c r="AF31" s="3"/>
+      <c r="AF31" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AG31" s="3"/>
       <c r="AH31" s="3"/>
       <c r="AI31" s="3"/>
@@ -3352,30 +3510,30 @@
       <c r="BJ31" s="3"/>
       <c r="BK31" s="3"/>
       <c r="BL31" s="3"/>
-      <c r="BM31" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="BN31" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>30</v>
+      <c r="BM31" s="8"/>
+      <c r="BN31" s="3"/>
+      <c r="BO31" s="3"/>
+      <c r="BP31" s="3"/>
+      <c r="BQ31" s="3"/>
+      <c r="BR31" s="2"/>
+    </row>
+    <row r="32" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="F32" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
@@ -3383,37 +3541,37 @@
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
+      <c r="R32" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="T32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U32" s="3"/>
       <c r="V32" s="3"/>
-      <c r="W32" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="W32" s="3"/>
       <c r="X32" s="3"/>
-      <c r="Y32" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
       <c r="AD32" s="3"/>
-      <c r="AE32" s="3"/>
+      <c r="AE32" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AF32" s="3"/>
-      <c r="AG32" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AG32" s="3"/>
       <c r="AH32" s="3"/>
       <c r="AI32" s="3"/>
       <c r="AJ32" s="3"/>
       <c r="AK32" s="3"/>
       <c r="AL32" s="3"/>
       <c r="AM32" s="3"/>
-      <c r="AN32" s="3"/>
+      <c r="AN32" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AO32" s="3"/>
       <c r="AP32" s="3"/>
       <c r="AQ32" s="3"/>
@@ -3438,54 +3596,84 @@
       <c r="BJ32" s="3"/>
       <c r="BK32" s="3"/>
       <c r="BL32" s="3"/>
-      <c r="BM32" s="3"/>
+      <c r="BM32" s="8"/>
       <c r="BN32" s="3"/>
-    </row>
-    <row r="33" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="BO32" s="3"/>
+      <c r="BP32" s="3"/>
+      <c r="BQ32" s="3"/>
+      <c r="BR32" s="2"/>
+    </row>
+    <row r="33" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D33" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="R33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
+      <c r="Z33" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
-      <c r="AF33" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AF33" s="3"/>
       <c r="AG33" s="3"/>
       <c r="AH33" s="3"/>
       <c r="AI33" s="3"/>
@@ -3494,9 +3682,7 @@
       <c r="AL33" s="3"/>
       <c r="AM33" s="3"/>
       <c r="AN33" s="3"/>
-      <c r="AO33" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AO33" s="3"/>
       <c r="AP33" s="3"/>
       <c r="AQ33" s="3"/>
       <c r="AR33" s="3"/>
@@ -3520,65 +3706,47 @@
       <c r="BJ33" s="3"/>
       <c r="BK33" s="3"/>
       <c r="BL33" s="3"/>
-      <c r="BM33" s="3"/>
+      <c r="BM33" s="8"/>
       <c r="BN33" s="3"/>
-    </row>
-    <row r="34" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>32</v>
+      <c r="BO33" s="3"/>
+      <c r="BP33" s="3"/>
+      <c r="BQ33" s="3"/>
+      <c r="BR33" s="2"/>
+    </row>
+    <row r="34" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="E34" s="3"/>
-      <c r="F34" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L34" s="3"/>
       <c r="M34" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O34" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P34" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q34" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="R34" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="S34" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
@@ -3586,11 +3754,9 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA34" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
       <c r="AD34" s="3"/>
@@ -3604,7 +3770,9 @@
       <c r="AL34" s="3"/>
       <c r="AM34" s="3"/>
       <c r="AN34" s="3"/>
-      <c r="AO34" s="3"/>
+      <c r="AO34" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AP34" s="3"/>
       <c r="AQ34" s="3"/>
       <c r="AR34" s="3"/>
@@ -3620,7 +3788,9 @@
       <c r="BB34" s="3"/>
       <c r="BC34" s="3"/>
       <c r="BD34" s="3"/>
-      <c r="BE34" s="3"/>
+      <c r="BE34" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="BF34" s="3"/>
       <c r="BG34" s="3"/>
       <c r="BH34" s="3"/>
@@ -3628,37 +3798,29 @@
       <c r="BJ34" s="3"/>
       <c r="BK34" s="3"/>
       <c r="BL34" s="3"/>
-      <c r="BM34" s="3"/>
+      <c r="BM34" s="8"/>
       <c r="BN34" s="3"/>
-    </row>
-    <row r="35" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="BO34" s="3"/>
+      <c r="BP34" s="3"/>
+      <c r="BQ34" s="3"/>
+      <c r="BR34" s="2"/>
+    </row>
+    <row r="35" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
-      <c r="K35" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="K35" s="3"/>
       <c r="L35" s="3"/>
-      <c r="M35" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
@@ -3672,9 +3834,7 @@
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
-      <c r="AA35" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
       <c r="AC35" s="3"/>
       <c r="AD35" s="3"/>
@@ -3689,9 +3849,7 @@
       <c r="AM35" s="3"/>
       <c r="AN35" s="3"/>
       <c r="AO35" s="3"/>
-      <c r="AP35" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AP35" s="3"/>
       <c r="AQ35" s="3"/>
       <c r="AR35" s="3"/>
       <c r="AS35" s="3"/>
@@ -3707,21 +3865,23 @@
       <c r="BC35" s="3"/>
       <c r="BD35" s="3"/>
       <c r="BE35" s="3"/>
-      <c r="BF35" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="BF35" s="3"/>
       <c r="BG35" s="3"/>
       <c r="BH35" s="3"/>
       <c r="BI35" s="3"/>
       <c r="BJ35" s="3"/>
       <c r="BK35" s="3"/>
       <c r="BL35" s="3"/>
-      <c r="BM35" s="3"/>
+      <c r="BM35" s="8"/>
       <c r="BN35" s="3"/>
-    </row>
-    <row r="36" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>34</v>
+      <c r="BO35" s="3"/>
+      <c r="BP35" s="3"/>
+      <c r="BQ35" s="3"/>
+      <c r="BR35" s="2"/>
+    </row>
+    <row r="36" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -3786,31 +3946,55 @@
       <c r="BJ36" s="3"/>
       <c r="BK36" s="3"/>
       <c r="BL36" s="3"/>
-      <c r="BM36" s="3"/>
+      <c r="BM36" s="8"/>
       <c r="BN36" s="3"/>
-    </row>
-    <row r="37" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="BO36" s="3"/>
+      <c r="BP36" s="3"/>
+      <c r="BQ36" s="3"/>
+      <c r="BR36" s="2"/>
+    </row>
+    <row r="37" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
+      <c r="G37" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
+      <c r="J37" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
+      <c r="M37" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
+      <c r="P37" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
+      <c r="R37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
@@ -3829,7 +4013,9 @@
       <c r="AI37" s="3"/>
       <c r="AJ37" s="3"/>
       <c r="AK37" s="3"/>
-      <c r="AL37" s="3"/>
+      <c r="AL37" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AM37" s="3"/>
       <c r="AN37" s="3"/>
       <c r="AO37" s="3"/>
@@ -3851,56 +4037,42 @@
       <c r="BE37" s="3"/>
       <c r="BF37" s="3"/>
       <c r="BG37" s="3"/>
-      <c r="BH37" s="3"/>
+      <c r="BH37" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="BI37" s="3"/>
       <c r="BJ37" s="3"/>
       <c r="BK37" s="3"/>
       <c r="BL37" s="3"/>
-      <c r="BM37" s="3"/>
+      <c r="BM37" s="8"/>
       <c r="BN37" s="3"/>
-    </row>
-    <row r="38" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="BO37" s="3"/>
+      <c r="BP37" s="3"/>
+      <c r="BQ37" s="3"/>
+      <c r="BR37" s="2"/>
+    </row>
+    <row r="38" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
-      <c r="J38" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
-      <c r="M38" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
-      <c r="P38" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
-      <c r="R38" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="S38" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
@@ -3920,9 +4092,7 @@
       <c r="AJ38" s="3"/>
       <c r="AK38" s="3"/>
       <c r="AL38" s="3"/>
-      <c r="AM38" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AM38" s="3"/>
       <c r="AN38" s="3"/>
       <c r="AO38" s="3"/>
       <c r="AP38" s="3"/>
@@ -3944,37 +4114,47 @@
       <c r="BF38" s="3"/>
       <c r="BG38" s="3"/>
       <c r="BH38" s="3"/>
-      <c r="BI38" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="BI38" s="3"/>
       <c r="BJ38" s="3"/>
       <c r="BK38" s="3"/>
       <c r="BL38" s="3"/>
-      <c r="BM38" s="3"/>
+      <c r="BM38" s="8"/>
       <c r="BN38" s="3"/>
-    </row>
-    <row r="39" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>37</v>
+      <c r="BO38" s="3"/>
+      <c r="BP38" s="3"/>
+      <c r="BQ38" s="3"/>
+      <c r="BR38" s="2"/>
+    </row>
+    <row r="39" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
+      <c r="D39" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
+      <c r="J39" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
+      <c r="N39" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
+      <c r="S39" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
@@ -3992,7 +4172,9 @@
       <c r="AH39" s="3"/>
       <c r="AI39" s="3"/>
       <c r="AJ39" s="3"/>
-      <c r="AK39" s="3"/>
+      <c r="AK39" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AL39" s="3"/>
       <c r="AM39" s="3"/>
       <c r="AN39" s="3"/>
@@ -4020,44 +4202,48 @@
       <c r="BJ39" s="3"/>
       <c r="BK39" s="3"/>
       <c r="BL39" s="3"/>
-      <c r="BM39" s="3"/>
+      <c r="BM39" s="8"/>
       <c r="BN39" s="3"/>
-    </row>
-    <row r="40" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>38</v>
+      <c r="BO39" s="3"/>
+      <c r="BP39" s="3"/>
+      <c r="BQ39" s="3"/>
+      <c r="BR39" s="2"/>
+    </row>
+    <row r="40" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
+      <c r="F40" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
-      <c r="J40" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-      <c r="N40" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="T40" s="3"/>
+      <c r="R40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
@@ -4065,15 +4251,15 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-      <c r="AF40" s="3"/>
+      <c r="AF40" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AG40" s="3"/>
       <c r="AH40" s="3"/>
       <c r="AI40" s="3"/>
       <c r="AJ40" s="3"/>
       <c r="AK40" s="3"/>
-      <c r="AL40" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AL40" s="3"/>
       <c r="AM40" s="3"/>
       <c r="AN40" s="3"/>
       <c r="AO40" s="3"/>
@@ -4100,26 +4286,30 @@
       <c r="BJ40" s="3"/>
       <c r="BK40" s="3"/>
       <c r="BL40" s="3"/>
-      <c r="BM40" s="3"/>
+      <c r="BM40" s="8"/>
       <c r="BN40" s="3"/>
-    </row>
-    <row r="41" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>39</v>
+      <c r="BO40" s="3"/>
+      <c r="BP40" s="3"/>
+      <c r="BQ40" s="3"/>
+      <c r="BR40" s="2"/>
+    </row>
+    <row r="41" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="E41" s="3"/>
-      <c r="F41" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
+      <c r="J41" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
@@ -4127,17 +4317,23 @@
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
-      <c r="R41" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="S41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="T41" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="U41" s="3"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-      <c r="X41" s="2"/>
+      <c r="V41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
       <c r="AA41" s="3"/>
@@ -4146,10 +4342,10 @@
       <c r="AD41" s="3"/>
       <c r="AE41" s="3"/>
       <c r="AF41" s="3"/>
-      <c r="AG41" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH41" s="3"/>
+      <c r="AG41" s="3"/>
+      <c r="AH41" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AI41" s="3"/>
       <c r="AJ41" s="3"/>
       <c r="AK41" s="3"/>
@@ -4180,50 +4376,50 @@
       <c r="BJ41" s="3"/>
       <c r="BK41" s="3"/>
       <c r="BL41" s="3"/>
-      <c r="BM41" s="3"/>
+      <c r="BM41" s="8"/>
       <c r="BN41" s="3"/>
-    </row>
-    <row r="42" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="BO41" s="3"/>
+      <c r="BP41" s="3"/>
+      <c r="BQ41" s="3"/>
+      <c r="BR41" s="2"/>
+    </row>
+    <row r="42" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
+      <c r="F42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
-      <c r="J42" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
+      <c r="O42" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
-      <c r="S42" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="T42" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
       <c r="U42" s="3"/>
-      <c r="V42" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="W42" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="X42" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
       <c r="AA42" s="3"/>
@@ -4234,9 +4430,7 @@
       <c r="AF42" s="3"/>
       <c r="AG42" s="3"/>
       <c r="AH42" s="3"/>
-      <c r="AI42" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AI42" s="3"/>
       <c r="AJ42" s="3"/>
       <c r="AK42" s="3"/>
       <c r="AL42" s="3"/>
@@ -4244,7 +4438,9 @@
       <c r="AN42" s="3"/>
       <c r="AO42" s="3"/>
       <c r="AP42" s="3"/>
-      <c r="AQ42" s="3"/>
+      <c r="AQ42" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AR42" s="3"/>
       <c r="AS42" s="3"/>
       <c r="AT42" s="3"/>
@@ -4266,26 +4462,32 @@
       <c r="BJ42" s="3"/>
       <c r="BK42" s="3"/>
       <c r="BL42" s="3"/>
-      <c r="BM42" s="3"/>
+      <c r="BM42" s="8"/>
       <c r="BN42" s="3"/>
-    </row>
-    <row r="43" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>41</v>
+      <c r="BO42" s="3"/>
+      <c r="BP42" s="3"/>
+      <c r="BQ42" s="3"/>
+      <c r="BR42" s="2"/>
+    </row>
+    <row r="43" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D43" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -4294,10 +4496,10 @@
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
-      <c r="O43" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
@@ -4323,11 +4525,11 @@
       <c r="AM43" s="3"/>
       <c r="AN43" s="3"/>
       <c r="AO43" s="3"/>
-      <c r="AP43" s="3"/>
+      <c r="AP43" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AQ43" s="3"/>
-      <c r="AR43" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AR43" s="3"/>
       <c r="AS43" s="3"/>
       <c r="AT43" s="3"/>
       <c r="AU43" s="3"/>
@@ -4347,30 +4549,26 @@
       <c r="BI43" s="3"/>
       <c r="BJ43" s="3"/>
       <c r="BK43" s="3"/>
-      <c r="BL43" s="3"/>
-      <c r="BM43" s="3"/>
+      <c r="BL43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM43" s="8"/>
       <c r="BN43" s="3"/>
-    </row>
-    <row r="44" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="BO43" s="3"/>
+      <c r="BP43" s="3"/>
+      <c r="BQ43" s="3"/>
+      <c r="BR43" s="2"/>
+    </row>
+    <row r="44" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
@@ -4379,9 +4577,7 @@
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
-      <c r="P44" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
@@ -4408,9 +4604,7 @@
       <c r="AN44" s="3"/>
       <c r="AO44" s="3"/>
       <c r="AP44" s="3"/>
-      <c r="AQ44" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AQ44" s="3"/>
       <c r="AR44" s="3"/>
       <c r="AS44" s="3"/>
       <c r="AT44" s="3"/>
@@ -4432,14 +4626,16 @@
       <c r="BJ44" s="3"/>
       <c r="BK44" s="3"/>
       <c r="BL44" s="3"/>
-      <c r="BM44" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="BM44" s="8"/>
       <c r="BN44" s="3"/>
-    </row>
-    <row r="45" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>43</v>
+      <c r="BO44" s="3"/>
+      <c r="BP44" s="3"/>
+      <c r="BQ44" s="3"/>
+      <c r="BR44" s="2"/>
+    </row>
+    <row r="45" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -4504,12 +4700,16 @@
       <c r="BJ45" s="3"/>
       <c r="BK45" s="3"/>
       <c r="BL45" s="3"/>
-      <c r="BM45" s="3"/>
+      <c r="BM45" s="8"/>
       <c r="BN45" s="3"/>
-    </row>
-    <row r="46" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>44</v>
+      <c r="BO45" s="3"/>
+      <c r="BP45" s="3"/>
+      <c r="BQ45" s="3"/>
+      <c r="BR45" s="2"/>
+    </row>
+    <row r="46" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -4574,12 +4774,16 @@
       <c r="BJ46" s="3"/>
       <c r="BK46" s="3"/>
       <c r="BL46" s="3"/>
-      <c r="BM46" s="3"/>
+      <c r="BM46" s="8"/>
       <c r="BN46" s="3"/>
-    </row>
-    <row r="47" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>45</v>
+      <c r="BO46" s="3"/>
+      <c r="BP46" s="3"/>
+      <c r="BQ46" s="3"/>
+      <c r="BR46" s="2"/>
+    </row>
+    <row r="47" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -4644,28 +4848,40 @@
       <c r="BJ47" s="3"/>
       <c r="BK47" s="3"/>
       <c r="BL47" s="3"/>
-      <c r="BM47" s="3"/>
+      <c r="BM47" s="8"/>
       <c r="BN47" s="3"/>
-    </row>
-    <row r="48" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
+      <c r="BO47" s="3"/>
+      <c r="BP47" s="3"/>
+      <c r="BQ47" s="3"/>
+      <c r="BR47" s="2"/>
+    </row>
+    <row r="48" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
+      <c r="J48" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
+      <c r="P48" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
@@ -4714,36 +4930,32 @@
       <c r="BJ48" s="3"/>
       <c r="BK48" s="3"/>
       <c r="BL48" s="3"/>
-      <c r="BM48" s="3"/>
+      <c r="BM48" s="8"/>
       <c r="BN48" s="3"/>
-    </row>
-    <row r="49" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="BO48" s="3"/>
+      <c r="BP48" s="3"/>
+      <c r="BQ48" s="3"/>
+      <c r="BR48" s="2"/>
+    </row>
+    <row r="49" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
-      <c r="J49" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
-      <c r="P49" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
@@ -4792,12 +5004,16 @@
       <c r="BJ49" s="3"/>
       <c r="BK49" s="3"/>
       <c r="BL49" s="3"/>
-      <c r="BM49" s="3"/>
+      <c r="BM49" s="8"/>
       <c r="BN49" s="3"/>
-    </row>
-    <row r="50" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
-        <v>48</v>
+      <c r="BO49" s="3"/>
+      <c r="BP49" s="3"/>
+      <c r="BQ49" s="3"/>
+      <c r="BR49" s="2"/>
+    </row>
+    <row r="50" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -4862,12 +5078,16 @@
       <c r="BJ50" s="3"/>
       <c r="BK50" s="3"/>
       <c r="BL50" s="3"/>
-      <c r="BM50" s="3"/>
+      <c r="BM50" s="8"/>
       <c r="BN50" s="3"/>
-    </row>
-    <row r="51" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>49</v>
+      <c r="BO50" s="3"/>
+      <c r="BP50" s="3"/>
+      <c r="BQ50" s="3"/>
+      <c r="BR50" s="2"/>
+    </row>
+    <row r="51" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -4881,7 +5101,9 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
+      <c r="N51" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
@@ -4932,12 +5154,16 @@
       <c r="BJ51" s="3"/>
       <c r="BK51" s="3"/>
       <c r="BL51" s="3"/>
-      <c r="BM51" s="3"/>
+      <c r="BM51" s="8"/>
       <c r="BN51" s="3"/>
-    </row>
-    <row r="52" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
-        <v>50</v>
+      <c r="BO51" s="3"/>
+      <c r="BP51" s="3"/>
+      <c r="BQ51" s="3"/>
+      <c r="BR51" s="2"/>
+    </row>
+    <row r="52" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -4951,9 +5177,7 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
-      <c r="N52" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="N52" s="3"/>
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
@@ -5004,12 +5228,16 @@
       <c r="BJ52" s="3"/>
       <c r="BK52" s="3"/>
       <c r="BL52" s="3"/>
-      <c r="BM52" s="3"/>
+      <c r="BM52" s="8"/>
       <c r="BN52" s="3"/>
-    </row>
-    <row r="53" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
-        <v>51</v>
+      <c r="BO52" s="3"/>
+      <c r="BP52" s="3"/>
+      <c r="BQ52" s="3"/>
+      <c r="BR52" s="2"/>
+    </row>
+    <row r="53" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -5026,7 +5254,9 @@
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
+      <c r="Q53" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3"/>
@@ -5074,12 +5304,16 @@
       <c r="BJ53" s="3"/>
       <c r="BK53" s="3"/>
       <c r="BL53" s="3"/>
-      <c r="BM53" s="3"/>
+      <c r="BM53" s="8"/>
       <c r="BN53" s="3"/>
-    </row>
-    <row r="54" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
-        <v>52</v>
+      <c r="BO53" s="3"/>
+      <c r="BP53" s="3"/>
+      <c r="BQ53" s="3"/>
+      <c r="BR53" s="2"/>
+    </row>
+    <row r="54" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -5096,9 +5330,7 @@
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
-      <c r="Q54" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
       <c r="T54" s="3"/>
@@ -5146,12 +5378,16 @@
       <c r="BJ54" s="3"/>
       <c r="BK54" s="3"/>
       <c r="BL54" s="3"/>
-      <c r="BM54" s="3"/>
+      <c r="BM54" s="8"/>
       <c r="BN54" s="3"/>
-    </row>
-    <row r="55" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
-        <v>53</v>
+      <c r="BO54" s="3"/>
+      <c r="BP54" s="3"/>
+      <c r="BQ54" s="3"/>
+      <c r="BR54" s="2"/>
+    </row>
+    <row r="55" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -5216,12 +5452,16 @@
       <c r="BJ55" s="3"/>
       <c r="BK55" s="3"/>
       <c r="BL55" s="3"/>
-      <c r="BM55" s="3"/>
+      <c r="BM55" s="8"/>
       <c r="BN55" s="3"/>
-    </row>
-    <row r="56" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
-        <v>54</v>
+      <c r="BO55" s="3"/>
+      <c r="BP55" s="3"/>
+      <c r="BQ55" s="3"/>
+      <c r="BR55" s="2"/>
+    </row>
+    <row r="56" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -5286,15 +5526,23 @@
       <c r="BJ56" s="3"/>
       <c r="BK56" s="3"/>
       <c r="BL56" s="3"/>
-      <c r="BM56" s="3"/>
+      <c r="BM56" s="8"/>
       <c r="BN56" s="3"/>
-    </row>
-    <row r="57" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
+      <c r="BO56" s="3"/>
+      <c r="BP56" s="3"/>
+      <c r="BQ56" s="3"/>
+      <c r="BR56" s="2"/>
+    </row>
+    <row r="57" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -5325,7 +5573,9 @@
       <c r="AE57" s="3"/>
       <c r="AF57" s="3"/>
       <c r="AG57" s="3"/>
-      <c r="AH57" s="3"/>
+      <c r="AH57" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AI57" s="3"/>
       <c r="AJ57" s="3"/>
       <c r="AK57" s="3"/>
@@ -5356,19 +5606,19 @@
       <c r="BJ57" s="3"/>
       <c r="BK57" s="3"/>
       <c r="BL57" s="3"/>
-      <c r="BM57" s="3"/>
+      <c r="BM57" s="8"/>
       <c r="BN57" s="3"/>
-    </row>
-    <row r="58" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="BO57" s="3"/>
+      <c r="BP57" s="3"/>
+      <c r="BQ57" s="3"/>
+      <c r="BR57" s="2"/>
+    </row>
+    <row r="58" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -5400,9 +5650,7 @@
       <c r="AF58" s="3"/>
       <c r="AG58" s="3"/>
       <c r="AH58" s="3"/>
-      <c r="AI58" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AI58" s="3"/>
       <c r="AJ58" s="3"/>
       <c r="AK58" s="3"/>
       <c r="AL58" s="3"/>
@@ -5432,12 +5680,16 @@
       <c r="BJ58" s="3"/>
       <c r="BK58" s="3"/>
       <c r="BL58" s="3"/>
-      <c r="BM58" s="3"/>
+      <c r="BM58" s="8"/>
       <c r="BN58" s="3"/>
-    </row>
-    <row r="59" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
-        <v>57</v>
+      <c r="BO58" s="3"/>
+      <c r="BP58" s="3"/>
+      <c r="BQ58" s="3"/>
+      <c r="BR58" s="2"/>
+    </row>
+    <row r="59" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -5502,12 +5754,16 @@
       <c r="BJ59" s="3"/>
       <c r="BK59" s="3"/>
       <c r="BL59" s="3"/>
-      <c r="BM59" s="3"/>
+      <c r="BM59" s="8"/>
       <c r="BN59" s="3"/>
-    </row>
-    <row r="60" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
-        <v>58</v>
+      <c r="BO59" s="3"/>
+      <c r="BP59" s="3"/>
+      <c r="BQ59" s="3"/>
+      <c r="BR59" s="2"/>
+    </row>
+    <row r="60" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -5544,7 +5800,9 @@
       <c r="AH60" s="3"/>
       <c r="AI60" s="3"/>
       <c r="AJ60" s="3"/>
-      <c r="AK60" s="3"/>
+      <c r="AK60" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AL60" s="3"/>
       <c r="AM60" s="3"/>
       <c r="AN60" s="3"/>
@@ -5572,12 +5830,16 @@
       <c r="BJ60" s="3"/>
       <c r="BK60" s="3"/>
       <c r="BL60" s="3"/>
-      <c r="BM60" s="3"/>
+      <c r="BM60" s="8"/>
       <c r="BN60" s="3"/>
-    </row>
-    <row r="61" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
-        <v>59</v>
+      <c r="BO60" s="3"/>
+      <c r="BP60" s="3"/>
+      <c r="BQ60" s="3"/>
+      <c r="BR60" s="2"/>
+    </row>
+    <row r="61" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -5615,9 +5877,7 @@
       <c r="AI61" s="3"/>
       <c r="AJ61" s="3"/>
       <c r="AK61" s="3"/>
-      <c r="AL61" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AL61" s="3"/>
       <c r="AM61" s="3"/>
       <c r="AN61" s="3"/>
       <c r="AO61" s="3"/>
@@ -5644,12 +5904,16 @@
       <c r="BJ61" s="3"/>
       <c r="BK61" s="3"/>
       <c r="BL61" s="3"/>
-      <c r="BM61" s="3"/>
+      <c r="BM61" s="8"/>
       <c r="BN61" s="3"/>
-    </row>
-    <row r="62" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
-        <v>60</v>
+      <c r="BO61" s="3"/>
+      <c r="BP61" s="3"/>
+      <c r="BQ61" s="3"/>
+      <c r="BR61" s="2"/>
+    </row>
+    <row r="62" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -5714,12 +5978,16 @@
       <c r="BJ62" s="3"/>
       <c r="BK62" s="3"/>
       <c r="BL62" s="3"/>
-      <c r="BM62" s="3"/>
+      <c r="BM62" s="8"/>
       <c r="BN62" s="3"/>
-    </row>
-    <row r="63" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
-        <v>61</v>
+      <c r="BO62" s="3"/>
+      <c r="BP62" s="3"/>
+      <c r="BQ62" s="3"/>
+      <c r="BR62" s="2"/>
+    </row>
+    <row r="63" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -5784,16 +6052,26 @@
       <c r="BJ63" s="3"/>
       <c r="BK63" s="3"/>
       <c r="BL63" s="3"/>
-      <c r="BM63" s="3"/>
+      <c r="BM63" s="8"/>
       <c r="BN63" s="3"/>
-    </row>
-    <row r="64" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
+      <c r="BO63" s="3"/>
+      <c r="BP63" s="3"/>
+      <c r="BQ63" s="3"/>
+      <c r="BR63" s="2"/>
+    </row>
+    <row r="64" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -5804,8 +6082,12 @@
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
+      <c r="O64" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P64" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="Q64" s="3"/>
       <c r="R64" s="3"/>
       <c r="S64" s="3"/>
@@ -5819,7 +6101,9 @@
       <c r="AA64" s="3"/>
       <c r="AB64" s="3"/>
       <c r="AC64" s="3"/>
-      <c r="AD64" s="3"/>
+      <c r="AD64" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AE64" s="3"/>
       <c r="AF64" s="3"/>
       <c r="AG64" s="3"/>
@@ -5832,7 +6116,9 @@
       <c r="AN64" s="3"/>
       <c r="AO64" s="3"/>
       <c r="AP64" s="3"/>
-      <c r="AQ64" s="3"/>
+      <c r="AQ64" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AR64" s="3"/>
       <c r="AS64" s="3"/>
       <c r="AT64" s="3"/>
@@ -5854,22 +6140,20 @@
       <c r="BJ64" s="3"/>
       <c r="BK64" s="3"/>
       <c r="BL64" s="3"/>
-      <c r="BM64" s="3"/>
+      <c r="BM64" s="8"/>
       <c r="BN64" s="3"/>
-    </row>
-    <row r="65" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="BO64" s="3"/>
+      <c r="BP64" s="3"/>
+      <c r="BQ64" s="3"/>
+      <c r="BR64" s="2"/>
+    </row>
+    <row r="65" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
@@ -5880,12 +6164,8 @@
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
-      <c r="O65" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P65" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
       <c r="R65" s="3"/>
       <c r="S65" s="3"/>
@@ -5899,10 +6179,10 @@
       <c r="AA65" s="3"/>
       <c r="AB65" s="3"/>
       <c r="AC65" s="3"/>
-      <c r="AD65" s="3"/>
-      <c r="AE65" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AD65" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE65" s="3"/>
       <c r="AF65" s="3"/>
       <c r="AG65" s="3"/>
       <c r="AH65" s="3"/>
@@ -5915,9 +6195,7 @@
       <c r="AO65" s="3"/>
       <c r="AP65" s="3"/>
       <c r="AQ65" s="3"/>
-      <c r="AR65" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="AR65" s="3"/>
       <c r="AS65" s="3"/>
       <c r="AT65" s="3"/>
       <c r="AU65" s="3"/>
@@ -5939,147 +6217,317 @@
       <c r="BK65" s="3"/>
       <c r="BL65" s="3"/>
       <c r="BM65" s="3"/>
-      <c r="BN65" s="3"/>
-    </row>
-    <row r="66" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="BN65" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO65" s="3"/>
+      <c r="BP65" s="3"/>
+      <c r="BQ65" s="3"/>
+      <c r="BR65" s="2"/>
+    </row>
+    <row r="66" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="6"/>
-      <c r="R66" s="6"/>
-      <c r="S66" s="6"/>
-      <c r="T66" s="6"/>
-      <c r="U66" s="6"/>
-      <c r="V66" s="6"/>
-      <c r="W66" s="6"/>
-      <c r="X66" s="6"/>
-      <c r="Y66" s="6"/>
-      <c r="Z66" s="6"/>
-      <c r="AA66" s="6"/>
-      <c r="AB66" s="6"/>
-      <c r="AC66" s="6"/>
-      <c r="AD66" s="6"/>
-      <c r="AE66" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AF66" s="6"/>
-      <c r="AG66" s="6"/>
-      <c r="AH66" s="6"/>
-      <c r="AI66" s="6"/>
-      <c r="AJ66" s="6"/>
-      <c r="AK66" s="6"/>
-      <c r="AL66" s="6"/>
-      <c r="AM66" s="6"/>
-      <c r="AN66" s="6"/>
-      <c r="AO66" s="6"/>
-      <c r="AP66" s="6"/>
-      <c r="AQ66" s="6"/>
-      <c r="AR66" s="6"/>
-      <c r="AS66" s="6"/>
-      <c r="AT66" s="6"/>
-      <c r="AU66" s="6"/>
-      <c r="AV66" s="6"/>
-      <c r="AW66" s="6"/>
-      <c r="AX66" s="6"/>
-      <c r="AY66" s="6"/>
-      <c r="AZ66" s="6"/>
-      <c r="BA66" s="6"/>
-      <c r="BB66" s="6"/>
-      <c r="BC66" s="6"/>
-      <c r="BD66" s="6"/>
-      <c r="BE66" s="6"/>
-      <c r="BF66" s="6"/>
-      <c r="BG66" s="6"/>
-      <c r="BH66" s="6"/>
-      <c r="BI66" s="6"/>
-      <c r="BJ66" s="6"/>
-      <c r="BK66" s="6"/>
-      <c r="BL66" s="6"/>
-      <c r="BM66" s="6"/>
-      <c r="BN66" s="6"/>
-    </row>
-    <row r="67" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="7"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="8"/>
-      <c r="N67" s="8"/>
-      <c r="O67" s="8"/>
-      <c r="P67" s="8"/>
-      <c r="Q67" s="8"/>
-      <c r="R67" s="8"/>
-      <c r="S67" s="8"/>
-      <c r="T67" s="8"/>
-      <c r="U67" s="8"/>
-      <c r="V67" s="8"/>
-      <c r="W67" s="8"/>
-      <c r="X67" s="8"/>
-      <c r="Y67" s="8"/>
-      <c r="Z67" s="8"/>
-      <c r="AA67" s="8"/>
-      <c r="AB67" s="8"/>
-      <c r="AC67" s="8"/>
-      <c r="AD67" s="8"/>
-      <c r="AE67" s="8"/>
-      <c r="AF67" s="8"/>
-      <c r="AG67" s="8"/>
-      <c r="AH67" s="8"/>
-      <c r="AI67" s="8"/>
-      <c r="AJ67" s="8"/>
-      <c r="AK67" s="8"/>
-      <c r="AL67" s="8"/>
-      <c r="AM67" s="8"/>
-      <c r="AN67" s="8"/>
-      <c r="AO67" s="8"/>
-      <c r="AP67" s="8"/>
-      <c r="AQ67" s="8"/>
-      <c r="AR67" s="8"/>
-      <c r="AS67" s="8"/>
-      <c r="AT67" s="8"/>
-      <c r="AU67" s="8"/>
-      <c r="AV67" s="8"/>
-      <c r="AW67" s="8"/>
-      <c r="AX67" s="8"/>
-      <c r="AY67" s="8"/>
-      <c r="AZ67" s="8"/>
-      <c r="BA67" s="8"/>
-      <c r="BB67" s="8"/>
-      <c r="BC67" s="8"/>
-      <c r="BD67" s="8"/>
-      <c r="BE67" s="8"/>
-      <c r="BF67" s="8"/>
-      <c r="BG67" s="8"/>
-      <c r="BH67" s="8"/>
-      <c r="BI67" s="8"/>
-      <c r="BJ67" s="8"/>
-      <c r="BK67" s="8"/>
-      <c r="BL67" s="8"/>
-      <c r="BM67" s="8"/>
-      <c r="BN67" s="8"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
+      <c r="W66" s="3"/>
+      <c r="X66" s="3"/>
+      <c r="Y66" s="3"/>
+      <c r="Z66" s="3"/>
+      <c r="AA66" s="3"/>
+      <c r="AB66" s="3"/>
+      <c r="AC66" s="3"/>
+      <c r="AD66" s="3"/>
+      <c r="AE66" s="3"/>
+      <c r="AF66" s="3"/>
+      <c r="AG66" s="3"/>
+      <c r="AH66" s="3"/>
+      <c r="AI66" s="3"/>
+      <c r="AJ66" s="3"/>
+      <c r="AK66" s="3"/>
+      <c r="AL66" s="3"/>
+      <c r="AM66" s="3"/>
+      <c r="AN66" s="3"/>
+      <c r="AO66" s="3"/>
+      <c r="AP66" s="3"/>
+      <c r="AQ66" s="3"/>
+      <c r="AR66" s="3"/>
+      <c r="AS66" s="3"/>
+      <c r="AT66" s="3"/>
+      <c r="AU66" s="3"/>
+      <c r="AV66" s="3"/>
+      <c r="AW66" s="3"/>
+      <c r="AX66" s="3"/>
+      <c r="AY66" s="3"/>
+      <c r="AZ66" s="3"/>
+      <c r="BA66" s="3"/>
+      <c r="BB66" s="3"/>
+      <c r="BC66" s="3"/>
+      <c r="BD66" s="3"/>
+      <c r="BE66" s="3"/>
+      <c r="BF66" s="3"/>
+      <c r="BG66" s="3"/>
+      <c r="BH66" s="3"/>
+      <c r="BI66" s="3"/>
+      <c r="BJ66" s="3"/>
+      <c r="BK66" s="3"/>
+      <c r="BL66" s="3"/>
+      <c r="BM66" s="3"/>
+      <c r="BN66" s="3"/>
+      <c r="BO66" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP66" s="3"/>
+      <c r="BQ66" s="3"/>
+      <c r="BR66" s="2"/>
+    </row>
+    <row r="67" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2"/>
+      <c r="V67" s="2"/>
+      <c r="W67" s="2"/>
+      <c r="X67" s="2"/>
+      <c r="Y67" s="2"/>
+      <c r="Z67" s="2"/>
+      <c r="AA67" s="2"/>
+      <c r="AB67" s="2"/>
+      <c r="AC67" s="2"/>
+      <c r="AD67" s="2"/>
+      <c r="AE67" s="2"/>
+      <c r="AF67" s="2"/>
+      <c r="AG67" s="2"/>
+      <c r="AH67" s="2"/>
+      <c r="AI67" s="2"/>
+      <c r="AJ67" s="2"/>
+      <c r="AK67" s="2"/>
+      <c r="AL67" s="2"/>
+      <c r="AM67" s="2"/>
+      <c r="AN67" s="2"/>
+      <c r="AO67" s="2"/>
+      <c r="AP67" s="2"/>
+      <c r="AQ67" s="2"/>
+      <c r="AR67" s="2"/>
+      <c r="AS67" s="2"/>
+      <c r="AT67" s="2"/>
+      <c r="AU67" s="2"/>
+      <c r="AV67" s="2"/>
+      <c r="AW67" s="2"/>
+      <c r="AX67" s="2"/>
+      <c r="AY67" s="2"/>
+      <c r="AZ67" s="2"/>
+      <c r="BA67" s="2"/>
+      <c r="BB67" s="2"/>
+      <c r="BC67" s="2"/>
+      <c r="BD67" s="2"/>
+      <c r="BE67" s="2"/>
+      <c r="BF67" s="2"/>
+      <c r="BG67" s="2"/>
+      <c r="BH67" s="2"/>
+      <c r="BI67" s="2"/>
+      <c r="BJ67" s="2"/>
+      <c r="BK67" s="2"/>
+      <c r="BL67" s="2"/>
+      <c r="BM67" s="2"/>
+      <c r="BN67" s="2"/>
+      <c r="BO67" s="2"/>
+      <c r="BP67" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ67" s="2"/>
+      <c r="BR67" s="2"/>
+    </row>
+    <row r="68" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
+      <c r="X68" s="2"/>
+      <c r="Y68" s="2"/>
+      <c r="Z68" s="2"/>
+      <c r="AA68" s="2"/>
+      <c r="AB68" s="2"/>
+      <c r="AC68" s="2"/>
+      <c r="AD68" s="2"/>
+      <c r="AE68" s="2"/>
+      <c r="AF68" s="2"/>
+      <c r="AG68" s="2"/>
+      <c r="AH68" s="2"/>
+      <c r="AI68" s="2"/>
+      <c r="AJ68" s="2"/>
+      <c r="AK68" s="2"/>
+      <c r="AL68" s="2"/>
+      <c r="AM68" s="2"/>
+      <c r="AN68" s="2"/>
+      <c r="AO68" s="2"/>
+      <c r="AP68" s="2"/>
+      <c r="AQ68" s="2"/>
+      <c r="AR68" s="2"/>
+      <c r="AS68" s="2"/>
+      <c r="AT68" s="2"/>
+      <c r="AU68" s="2"/>
+      <c r="AV68" s="2"/>
+      <c r="AW68" s="2"/>
+      <c r="AX68" s="2"/>
+      <c r="AY68" s="2"/>
+      <c r="AZ68" s="2"/>
+      <c r="BA68" s="2"/>
+      <c r="BB68" s="2"/>
+      <c r="BC68" s="2"/>
+      <c r="BD68" s="2"/>
+      <c r="BE68" s="2"/>
+      <c r="BF68" s="2"/>
+      <c r="BG68" s="2"/>
+      <c r="BH68" s="2"/>
+      <c r="BI68" s="2"/>
+      <c r="BJ68" s="2"/>
+      <c r="BK68" s="2"/>
+      <c r="BL68" s="2"/>
+      <c r="BM68" s="2"/>
+      <c r="BN68" s="2"/>
+      <c r="BO68" s="2"/>
+      <c r="BP68" s="2"/>
+      <c r="BQ68" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR68" s="2"/>
+    </row>
+    <row r="69" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="2"/>
+      <c r="X69" s="2"/>
+      <c r="Y69" s="2"/>
+      <c r="Z69" s="2"/>
+      <c r="AA69" s="2"/>
+      <c r="AB69" s="2"/>
+      <c r="AC69" s="2"/>
+      <c r="AD69" s="2"/>
+      <c r="AE69" s="2"/>
+      <c r="AF69" s="2"/>
+      <c r="AG69" s="2"/>
+      <c r="AH69" s="2"/>
+      <c r="AI69" s="2"/>
+      <c r="AJ69" s="2"/>
+      <c r="AK69" s="2"/>
+      <c r="AL69" s="2"/>
+      <c r="AM69" s="2"/>
+      <c r="AN69" s="2"/>
+      <c r="AO69" s="2"/>
+      <c r="AP69" s="2"/>
+      <c r="AQ69" s="2"/>
+      <c r="AR69" s="2"/>
+      <c r="AS69" s="2"/>
+      <c r="AT69" s="2"/>
+      <c r="AU69" s="2"/>
+      <c r="AV69" s="2"/>
+      <c r="AW69" s="2"/>
+      <c r="AX69" s="2"/>
+      <c r="AY69" s="2"/>
+      <c r="AZ69" s="2"/>
+      <c r="BA69" s="2"/>
+      <c r="BB69" s="2"/>
+      <c r="BC69" s="2"/>
+      <c r="BD69" s="2"/>
+      <c r="BE69" s="2"/>
+      <c r="BF69" s="2"/>
+      <c r="BG69" s="2"/>
+      <c r="BH69" s="2"/>
+      <c r="BI69" s="2"/>
+      <c r="BJ69" s="2"/>
+      <c r="BK69" s="2"/>
+      <c r="BL69" s="2"/>
+      <c r="BM69" s="2"/>
+      <c r="BN69" s="2"/>
+      <c r="BO69" s="2"/>
+      <c r="BP69" s="2"/>
+      <c r="BQ69" s="2"/>
+      <c r="BR69" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
